--- a/src/test/resources/test-file/write-template.xlsx
+++ b/src/test/resources/test-file/write-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33920" yWindow="1240" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="22400" yWindow="1240" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>字符串</t>
     <rPh sb="0" eb="1">
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>MAP C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP A null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP B null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,15 +413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,6 +448,15 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test-file/write-template.xlsx
+++ b/src/test/resources/test-file/write-template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>字符串</t>
     <rPh sb="0" eb="1">
@@ -36,13 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数字</t>
-    <rPh sb="0" eb="1">
-      <t>shu zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
       <t>ri qi</t>
@@ -83,6 +76,20 @@
   </si>
   <si>
     <t>MAP B null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字Int</t>
+    <rPh sb="0" eb="1">
+      <t>shu zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字Long</t>
+    <rPh sb="0" eb="1">
+      <t>shu zi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,50 +420,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test-file/write-template.xlsx
+++ b/src/test/resources/test-file/write-template.xlsx
@@ -420,52 +420,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A2:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/test-file/write-template.xlsx
+++ b/src/test/resources/test-file/write-template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>字符串</t>
     <rPh sb="0" eb="1">
@@ -91,13 +91,16 @@
       <t>shu zi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +115,11 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="3">
@@ -140,9 +148,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M2"/>
+  <dimension ref="A2:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,6 +476,9 @@
       </c>
       <c r="M2" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
